--- a/testdata/SeleniumTestData.xlsx
+++ b/testdata/SeleniumTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\eclipse-workspace_Demo\Rahulacademy\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruchi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A409F-4F8F-45F2-96EA-8392EC80C780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41850B-EFEE-4417-8EC0-33D649235B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rahulacademy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>TestCase</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Apple!090</t>
+  </si>
+  <si>
+    <t>newdta</t>
+  </si>
+  <si>
+    <t>dhdhs</t>
   </si>
 </sst>
 </file>
@@ -385,9 +391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -398,7 +406,7 @@
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +422,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -431,8 +442,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
